--- a/資料生成/生成數據/original.xlsx
+++ b/資料生成/生成數據/original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WYC\Desktop\電動大巴\EMS\EMS\資料生成\生成數據\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB1C8F0-F7D0-4090-BF07-BC0055ED5540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ED5D2A-6EA1-4966-9B40-B420F805398D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{925A7D47-992F-4F6E-A337-4B25F368C99A}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{925A7D47-992F-4F6E-A337-4B25F368C99A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="31">
   <si>
     <t>卡片名稱</t>
   </si>
@@ -118,6 +118,22 @@
   </si>
   <si>
     <t>計算總共使用電量(Wh)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誤差值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誤差倍率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACC5D97-E1D9-47F3-B45A-FA82E50C58E4}">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="N84" sqref="N84"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4100,6 +4116,40 @@
         <v>13928410</v>
       </c>
     </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113">
+        <v>13704000</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114">
+        <v>12143422.5</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>29</v>
+      </c>
+      <c r="H115">
+        <f>H113-H114</f>
+        <v>1560577.5</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116">
+        <f>H115/H113</f>
+        <v>0.11387751751313485</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:E110">
     <sortCondition ref="B19:B110"/>

--- a/資料生成/生成數據/original.xlsx
+++ b/資料生成/生成數據/original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WYC\Desktop\電動大巴\EMS\EMS\資料生成\生成數據\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11DABE1-DE03-4F48-BF61-C783060E6F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CD0CC0-5615-4861-93AD-37F14191CE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{925A7D47-992F-4F6E-A337-4B25F368C99A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{925A7D47-992F-4F6E-A337-4B25F368C99A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="28">
   <si>
     <t>卡片名稱</t>
   </si>
@@ -134,7 +134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="mm\.ss"/>
+    <numFmt numFmtId="176" formatCode="mm\.ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACC5D97-E1D9-47F3-B45A-FA82E50C58E4}">
   <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3883,10 +3883,7 @@
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="4">
-        <f>SUM(H2:H79)</f>
-        <v>9600000</v>
-      </c>
+      <c r="H81" s="4"/>
       <c r="I81" s="3"/>
       <c r="L81">
         <f>(SUM(L14+L26+L41+L52+L64+L75))/6</f>
